--- a/excercises/lecture 2/Exercies 2.xlsx
+++ b/excercises/lecture 2/Exercies 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hebpu\Code_KAMK\K25\JAMK\BusinessAnalytics_Resprictive\excercises\lecture 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D151BA9-B7FC-46CB-90CC-98EE74054474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB54682-AE91-46CA-A836-21D07624F8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer Report 1" sheetId="8" r:id="rId1"/>
